--- a/rawdata/investment_portfolio.xlsx
+++ b/rawdata/investment_portfolio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Ticker</t>
   </si>
@@ -22,34 +22,106 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Markey Cap</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
+    <t>IRDM</t>
+  </si>
+  <si>
+    <t>Iridium Communications Inc.</t>
+  </si>
+  <si>
+    <t>communication_services</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Amazon.com, Inc.</t>
+  </si>
+  <si>
+    <t>consumer_cyclical</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>Tesla, Inc.</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>McDonald's Corporation</t>
+  </si>
+  <si>
+    <t>consumer_defensive</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Incorporated</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corporation</t>
+  </si>
+  <si>
+    <t>industrials</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>American Tower Corporation</t>
+  </si>
+  <si>
+    <t>real_estate</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>Prologis, Inc.</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>Equinix, Inc.</t>
+  </si>
+  <si>
     <t>AAPL</t>
   </si>
   <si>
     <t>Apple Inc.</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Consumer Electronics</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>2324.92B</t>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices, Inc.</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>Texas Instruments Incorporated</t>
   </si>
   <si>
     <t>MSFT</t>
@@ -58,113 +130,53 @@
     <t>Microsoft Corporation</t>
   </si>
   <si>
-    <t>Software - Infrastructure</t>
-  </si>
-  <si>
-    <t>1794.03B</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>Alphabet Inc.</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Internet Content &amp; Information</t>
-  </si>
-  <si>
-    <t>1291.38B</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>1276.56B</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>Amazon.com, Inc.</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Internet Retail</t>
-  </si>
-  <si>
-    <t>1205.82B</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>Tesla, Inc.</t>
-  </si>
-  <si>
-    <t>Auto Manufacturers</t>
-  </si>
-  <si>
-    <t>880.90B</t>
-  </si>
-  <si>
-    <t>BRK-B</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway Inc.</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>Insurance - Diversifiedv</t>
-  </si>
-  <si>
-    <t>595.06B</t>
-  </si>
-  <si>
-    <t>BRK-A</t>
-  </si>
-  <si>
-    <t>593.78B</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Incorporated</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Healthcare Plans</t>
-  </si>
-  <si>
-    <t>479.52B</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
-    <t>Drug Manufacturers - General</t>
-  </si>
-  <si>
-    <t>431.18B</t>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>NextEra Energy, Inc.</t>
+  </si>
+  <si>
+    <t>utilities</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
+  </si>
+  <si>
+    <t>ProShares UltraPro QQQ</t>
+  </si>
+  <si>
+    <t>etf</t>
+  </si>
+  <si>
+    <t>SOXL</t>
+  </si>
+  <si>
+    <t>Direxion Daily Semiconductor Bull 3X Shares</t>
+  </si>
+  <si>
+    <t>SCHD</t>
+  </si>
+  <si>
+    <t>SCHWAB US DIVIDEND EQUITY ETF</t>
+  </si>
+  <si>
+    <t>VOO</t>
+  </si>
+  <si>
+    <t>Vanguard 500 Index Fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,10 +187,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,7 +229,9 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -439,12 +449,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="25.5"/>
-    <col customWidth="1" min="3" max="3" width="19.38"/>
-    <col customWidth="1" min="4" max="4" width="23.38"/>
-    <col customWidth="1" min="5" max="5" width="6.88"/>
-    <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="7" max="7" width="4.38"/>
+    <col customWidth="1" min="2" max="2" width="34.38"/>
+    <col customWidth="1" min="3" max="3" width="19.25"/>
+    <col customWidth="1" min="4" max="4" width="4.38"/>
+    <col customWidth="1" min="5" max="5" width="10.0"/>
+    <col customWidth="1" min="6" max="6" width="4.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,250 +469,288 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D4" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="D5" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D18" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="2">
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2">
         <v>2.0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B6"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rawdata/investment_portfolio.xlsx
+++ b/rawdata/investment_portfolio.xlsx
@@ -31,7 +31,7 @@
     <t>Iridium Communications Inc.</t>
   </si>
   <si>
-    <t>communication_services</t>
+    <t>Communication Services</t>
   </si>
   <si>
     <t>GOOGL</t>
@@ -46,7 +46,7 @@
     <t>Amazon.com, Inc.</t>
   </si>
   <si>
-    <t>consumer_cyclical</t>
+    <t>Consumer Cyclical</t>
   </si>
   <si>
     <t>TSLA</t>
@@ -61,7 +61,7 @@
     <t>McDonald's Corporation</t>
   </si>
   <si>
-    <t>consumer_defensive</t>
+    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>UNH</t>
@@ -70,7 +70,7 @@
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
-    <t>healthcare</t>
+    <t>Healthcare</t>
   </si>
   <si>
     <t>LMT</t>
@@ -79,7 +79,7 @@
     <t>Lockheed Martin Corporation</t>
   </si>
   <si>
-    <t>industrials</t>
+    <t>Industrials</t>
   </si>
   <si>
     <t>AMT</t>
@@ -88,7 +88,7 @@
     <t>American Tower Corporation</t>
   </si>
   <si>
-    <t>real_estate</t>
+    <t>Real Estate</t>
   </si>
   <si>
     <t>PLD</t>
@@ -109,7 +109,7 @@
     <t>Apple Inc.</t>
   </si>
   <si>
-    <t>technology</t>
+    <t>Technology</t>
   </si>
   <si>
     <t>AMD</t>
@@ -142,7 +142,7 @@
     <t>NextEra Energy, Inc.</t>
   </si>
   <si>
-    <t>utilities</t>
+    <t>Utilities</t>
   </si>
   <si>
     <t>TQQQ</t>
@@ -151,7 +151,7 @@
     <t>ProShares UltraPro QQQ</t>
   </si>
   <si>
-    <t>etf</t>
+    <t>ETF</t>
   </si>
   <si>
     <t>SOXL</t>
@@ -477,7 +477,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2">
@@ -491,7 +491,7 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
@@ -505,7 +505,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
@@ -519,7 +519,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
@@ -533,7 +533,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2">
@@ -547,7 +547,7 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2">
@@ -561,7 +561,7 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2">
@@ -575,7 +575,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2">
@@ -589,7 +589,7 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2">
@@ -603,7 +603,7 @@
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2">
@@ -617,7 +617,7 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2">
@@ -631,7 +631,7 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2">
@@ -645,7 +645,7 @@
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2">
@@ -659,7 +659,7 @@
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2">
@@ -673,7 +673,7 @@
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2">
@@ -687,7 +687,7 @@
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="2">

--- a/rawdata/investment_portfolio.xlsx
+++ b/rawdata/investment_portfolio.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>138.19999694824219</v>
@@ -597,7 +597,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>113</v>
@@ -631,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>44.369998931884773</v>
@@ -648,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>230.74000549316409</v>
@@ -699,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>121.38999938964839</v>
@@ -716,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>101.59999847412109</v>
@@ -733,7 +733,7 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>66.430000305175781</v>
@@ -750,7 +750,7 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1030</v>
       </c>
       <c r="E14">
         <v>8.8599996566772461</v>

--- a/rawdata/investment_portfolio.xlsx
+++ b/rawdata/investment_portfolio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Ticker</t>
   </si>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor Manufacturing Company Limited</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -506,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B21" activeCellId="1" sqref="B23 B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -775,22 +783,42 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>68.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>505.04000854492187</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E17">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/rawdata/investment_portfolio.xlsx
+++ b/rawdata/investment_portfolio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Ticker</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Advanced Micro Devices, Inc.</t>
-  </si>
-  <si>
-    <t>AMT</t>
-  </si>
-  <si>
-    <t>American Tower Corporation</t>
   </si>
   <si>
     <t>Real Estate</t>
@@ -514,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" activeCellId="1" sqref="B23 B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -579,53 +573,53 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>214.69999694824219</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>113</v>
+        <v>95.650001525878906</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>95.650001525878906</v>
+        <v>44.369998931884773</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -636,30 +630,30 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>44.369998931884773</v>
+        <v>230.74000549316409</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>230.74000549316409</v>
+        <v>232.8999938964844</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -670,30 +664,30 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>232.8999938964844</v>
+        <v>78.410003662109375</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>78.410003662109375</v>
+        <v>121.38999938964839</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -704,13 +698,13 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>121.38999938964839</v>
+        <v>101.59999847412109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -721,30 +715,30 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>101.59999847412109</v>
+        <v>66.430000305175781</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
       <c r="D13">
-        <v>2</v>
+        <v>1030</v>
       </c>
       <c r="E13">
-        <v>66.430000305175781</v>
+        <v>8.8599996566772461</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -755,63 +749,46 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>1030</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>8.8599996566772461</v>
+        <v>265.25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>265.25</v>
+        <v>68.56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>68.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
         <v>505.04000854492187</v>
       </c>
     </row>
